--- a/DMSNewVSale_2025-11-20_21-43.xlsx
+++ b/DMSNewVSale_2025-11-20_21-43.xlsx
@@ -215,6 +215,27 @@
     <t>53.0000</t>
   </si>
   <si>
+    <t>CLARITINE 10MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>CODILAR SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -230,9 +251,6 @@
     <t>CORASORE 150MG 20 TAB</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>46.00</t>
   </si>
   <si>
@@ -566,6 +584,12 @@
     <t>65.0000</t>
   </si>
   <si>
+    <t>IVYROSPAN SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -638,6 +662,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>NEUROGLOPENTIN 300 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>111.0000</t>
+  </si>
+  <si>
     <t>NEUROVIT 6 I.M. AMPS</t>
   </si>
   <si>
@@ -671,9 +704,6 @@
     <t>PANADOL EXTRA 24 F.C. TAB</t>
   </si>
   <si>
-    <t>27.0000</t>
-  </si>
-  <si>
     <t>PANTOLOC 40MG 14 TAB</t>
   </si>
   <si>
@@ -921,12 +951,6 @@
   </si>
   <si>
     <t>صوفى طويل جدا جدا</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
@@ -2087,7 +2111,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2097,14 +2121,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2113,14 +2137,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2130,14 +2154,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2146,14 +2170,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2170,7 +2194,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2186,7 +2210,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2196,11 +2220,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>27</v>
@@ -2212,14 +2236,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2229,14 +2253,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>62</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2245,14 +2269,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2262,14 +2286,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2285,7 +2309,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2295,14 +2319,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2311,14 +2335,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2328,11 +2352,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>15</v>
@@ -2344,14 +2368,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2361,11 +2385,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>27</v>
@@ -2377,14 +2401,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2394,14 +2418,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2410,14 +2434,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2427,14 +2451,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2450,7 +2474,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2460,7 +2484,7 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -2516,7 +2540,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2533,7 +2557,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2549,7 +2573,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2566,7 +2590,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2582,7 +2606,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2615,7 +2639,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2625,11 +2649,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>27</v>
@@ -2641,14 +2665,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2658,14 +2682,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>121</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2681,7 +2705,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2691,11 +2715,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>27</v>
@@ -2707,14 +2731,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2724,14 +2748,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>27</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2740,14 +2764,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2780,7 +2804,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2790,11 +2814,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>27</v>
@@ -2806,14 +2830,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2823,14 +2847,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2839,14 +2863,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2856,14 +2880,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>46</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2872,14 +2896,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2889,11 +2913,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>15</v>
@@ -2905,14 +2929,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2922,14 +2946,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2938,14 +2962,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2955,11 +2979,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>15</v>
@@ -2971,14 +2995,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>27</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2988,14 +3012,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3004,14 +3028,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3021,11 +3045,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>15</v>
@@ -3037,14 +3061,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>11</v>
+        <v>153</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3077,7 +3101,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3143,7 +3167,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>15</v>
+        <v>153</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3176,7 +3200,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3242,7 +3266,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3259,7 +3283,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3275,7 +3299,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3308,7 +3332,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3325,7 +3349,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3341,7 +3365,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3355,7 +3379,7 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>112</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>15</v>
@@ -3367,14 +3391,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3384,11 +3408,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>15</v>
@@ -3400,14 +3424,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>186</v>
+        <v>15</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3421,10 +3445,10 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3433,14 +3457,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3450,11 +3474,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>15</v>
@@ -3466,31 +3490,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>193</v>
+        <v>15</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3499,14 +3523,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>24</v>
+        <v>194</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3516,14 +3540,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>46</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>97</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3539,7 +3563,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3572,24 +3596,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3598,31 +3622,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3631,14 +3655,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3648,11 +3672,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>15</v>
@@ -3664,14 +3688,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3681,11 +3705,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>15</v>
@@ -3697,31 +3721,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>186</v>
+        <v>11</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>71</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>80</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3730,7 +3754,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3747,14 +3771,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3763,14 +3787,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>214</v>
+        <v>72</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3784,10 +3808,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>75</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3796,14 +3820,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3813,14 +3837,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3829,14 +3853,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>123</v>
+        <v>194</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3846,14 +3870,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>27</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3879,11 +3903,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>63</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>27</v>
@@ -3895,31 +3919,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>11</v>
+        <v>225</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3928,14 +3952,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>227</v>
+        <v>62</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3945,14 +3969,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>46</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>97</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3961,14 +3985,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>56</v>
+        <v>129</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3978,14 +4002,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>123</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3994,14 +4018,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>231</v>
+        <v>15</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4011,11 +4035,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>63</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>27</v>
@@ -4027,14 +4051,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4044,11 +4068,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>183</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>184</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>15</v>
@@ -4060,14 +4084,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4077,14 +4101,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4093,14 +4117,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>147</v>
+        <v>56</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4110,14 +4134,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>143</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4133,7 +4157,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>73</v>
+        <v>241</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4143,11 +4167,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>27</v>
@@ -4159,28 +4183,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>189</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>15</v>
@@ -4192,14 +4216,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4209,14 +4233,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>21</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4225,14 +4249,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>62</v>
+        <v>153</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4242,14 +4266,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>163</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>27</v>
+        <v>127</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4258,14 +4282,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4275,14 +4299,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4291,14 +4315,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4308,14 +4332,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>94</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>67</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4331,7 +4355,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>73</v>
+        <v>257</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4341,11 +4365,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>178</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>179</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>15</v>
@@ -4357,14 +4381,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4374,14 +4398,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>169</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4390,14 +4414,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4407,11 +4431,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>102</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>15</v>
@@ -4423,7 +4447,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4440,14 +4464,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4456,31 +4480,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4489,14 +4513,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4506,14 +4530,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>207</v>
+        <v>268</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>73</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4522,14 +4546,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>266</v>
+        <v>72</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4539,11 +4563,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>88</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>15</v>
@@ -4555,14 +4579,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>268</v>
+        <v>62</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4572,14 +4596,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>269</v>
+        <v>80</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>123</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4588,31 +4612,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>241</v>
+        <v>172</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>272</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4621,14 +4645,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4638,14 +4662,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>148</v>
+        <v>215</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>220</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>27</v>
+        <v>72</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4654,14 +4678,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>11</v>
+        <v>276</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4671,11 +4695,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>275</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>15</v>
@@ -4687,14 +4711,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4704,14 +4728,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4720,14 +4744,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4737,14 +4761,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>198</v>
+        <v>251</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>201</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4753,14 +4777,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4770,14 +4794,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>282</v>
+        <v>154</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>283</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4793,21 +4817,21 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>22</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>15</v>
@@ -4819,31 +4843,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>48</v>
+        <v>287</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>201</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4852,31 +4876,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>288</v>
+        <v>206</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>37</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4885,28 +4909,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>15</v>
@@ -4918,14 +4942,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4935,14 +4959,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>293</v>
+        <v>21</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>294</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4958,7 +4982,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4972,10 +4996,10 @@
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>112</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>297</v>
+        <v>129</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4984,14 +5008,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5001,14 +5025,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>195</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>48</v>
+        <v>15</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5017,14 +5041,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5034,7 +5058,7 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
@@ -5057,7 +5081,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5067,14 +5091,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>178</v>
+        <v>303</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>179</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>15</v>
+        <v>304</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5083,14 +5107,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>297</v>
+        <v>11</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5100,14 +5124,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>305</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>15</v>
+        <v>307</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5116,7 +5140,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5133,14 +5157,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>288</v>
+        <v>309</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>73</v>
+        <v>48</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5149,14 +5173,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5166,11 +5190,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>178</v>
+        <v>296</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>179</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>15</v>
@@ -5182,14 +5206,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>309</v>
+        <v>50</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5199,51 +5223,183 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>283</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q116" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>313</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>307</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>29</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>192</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>314</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>11</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>29</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>298</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>22</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>315</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>129</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>29</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>184</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>316</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>317</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>29</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>213</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>293</v>
+      </c>
+      <c t="s" r="Q120" s="12">
         <v>48</v>
       </c>
     </row>
-    <row r="117" ht="26.25" customHeight="1">
-      <c r="N117" s="13">
-        <v>7618.6400000000003</v>
-      </c>
-      <c r="O117" s="13"/>
-      <c r="P117" s="13"/>
-      <c r="Q117" s="13"/>
-    </row>
-    <row r="118" ht="16.5" customHeight="1">
-      <c t="s" r="A118" s="14">
-        <v>310</v>
-      </c>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c t="s" r="G118" s="15">
-        <v>311</v>
-      </c>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="16"/>
-      <c t="s" r="K118" s="17">
-        <v>312</v>
-      </c>
-      <c r="L118" s="17"/>
-      <c r="M118" s="17"/>
-      <c r="N118" s="17"/>
-      <c r="O118" s="17"/>
-      <c r="P118" s="17"/>
-      <c r="Q118" s="17"/>
+    <row r="121" ht="26.25" customHeight="1">
+      <c r="N121" s="13">
+        <v>7866.6400000000003</v>
+      </c>
+      <c r="O121" s="13"/>
+      <c r="P121" s="13"/>
+      <c r="Q121" s="13"/>
+    </row>
+    <row r="122" ht="16.5" customHeight="1">
+      <c t="s" r="A122" s="14">
+        <v>318</v>
+      </c>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c t="s" r="G122" s="15">
+        <v>319</v>
+      </c>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="16"/>
+      <c t="s" r="K122" s="17">
+        <v>320</v>
+      </c>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
+      <c r="N122" s="17"/>
+      <c r="O122" s="17"/>
+      <c r="P122" s="17"/>
+      <c r="Q122" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="562">
+  <mergeCells count="582">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5802,10 +5958,30 @@
     <mergeCell ref="H116:K116"/>
     <mergeCell ref="L116:M116"/>
     <mergeCell ref="N116:O116"/>
-    <mergeCell ref="N117:Q117"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="G118:I118"/>
-    <mergeCell ref="K118:Q118"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="N121:Q121"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="K122:Q122"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
